--- a/OASIP-SSA5-Proposed-PBIs-draft.xlsx
+++ b/OASIP-SSA5-Proposed-PBIs-draft.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\INT222\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\notea\Desktop\OASIP_SSA_5_V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A50358-F376-4B91-B390-054DC36D8721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12617095-D2F3-4789-9C69-CFD771E5AAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D5196090-FF4C-4341-B748-58E160049FA3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D5196090-FF4C-4341-B748-58E160049FA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="80">
   <si>
     <t>PBI #</t>
   </si>
@@ -236,12 +236,74 @@
   <si>
     <t>Sprint</t>
   </si>
+  <si>
+    <t>เป็นการสร้าง event ซ้ำอีกรอบได้เลยทันทีแต่เปลี่ยนวันและเวลาในการนัด</t>
+  </si>
+  <si>
+    <t>เป็นหน้า Page ที่ทำการเก็บ event ที่เราไม่ต้องการหรือลบออกไปและสามารถนำกลับมาสร้างใหม่หรือนัดใหม่ได้</t>
+  </si>
+  <si>
+    <t>หน้า Page ที่เป็นสถิติต่างๆไว้เป็นตัวเลขเพื่อวิเคราะห์ข้อมูลเชิงสถิติ</t>
+  </si>
+  <si>
+    <t>Feedback ของการนัดประชุมระหว่างนักศึกษาและอาจารย์ที่เป็นเจ้าของ category</t>
+  </si>
+  <si>
+    <t>เป็นระบบในการวิเคราะห์ข้อมูลและแสดงผลในรูปของข้อมูลสถิติ</t>
+  </si>
+  <si>
+    <t>หน้า Page ที่แสดง event ของเราที่ผ่านมาโดยสามารถ filter เพื่อให้ตามข้อมูลตามที่เราต้องการได้</t>
+  </si>
+  <si>
+    <t>เป็นการ bookmark event ที่เราให้ความสำคัญจะแสดงขึ้นเป็นลำดับแรกเสมอ</t>
+  </si>
+  <si>
+    <t>หน้าแสดงข้อมูลของ user คนนั้นๆ โดยจะมีชื่อ บทบาท อีเมล และปุ่มsign out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ให้ student สามารถเปลี่ยนชื่อของตนเองได้ </t>
+  </si>
+  <si>
+    <t>เป็นการบอกจำนวนของ user ทั้งหมดให้กับ admin สามารถ filter แยก role ได้</t>
+  </si>
+  <si>
+    <t>เป็นการบอกจำนวนทั้งหมดของ event ให้กับ lecturer สามารถ filter แยกแต่ละ category ได้</t>
+  </si>
+  <si>
+    <t>สามารถกด add event ได้ในหน้า page category เมื่อกด add ที่ category ไหนก็จะล็อก category นั้นในการ add ไว้</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เป็นการจำกัดจำนวนครั้งในการจองของ category </t>
+  </si>
+  <si>
+    <t>filter event ของ lecturer ให้เห็นเฉพาะของคนคนนั้นโดยใช้ชื่อหรืออีเมล</t>
+  </si>
+  <si>
+    <t xml:space="preserve">แยก evnet โดยใช้ category ของ lecturer ที่เป็นเจ้าของ category มากกว่า 2 ขึ้นไป </t>
+  </si>
+  <si>
+    <t>แสดง user โดยแยกแต่ละ role เพื่อให้ admin เห็นได้ง่ายและเฉพาะเจาะจงได้มากขึ้น</t>
+  </si>
+  <si>
+    <t>แสดง event โดยใช้ชื่อของ student เพื่อให้ admin เห็นได้สะดวกและเฉพาะเจาะจงได้มากขึ้น</t>
+  </si>
+  <si>
+    <t>เป็นการเปลี่ยน password ของ user ต่างๆโดยการร้องขอผ่าน admin ให้เปลี่ยน 
+password</t>
+  </si>
+  <si>
+    <t>บอกช่วงเวลาที่กำลังจะถึงนัดที่เราได้จองเอาไว้ ตั้งแต่ระดับ ปี เดือน วัน ชั่วโมง
+และนาที</t>
+  </si>
+  <si>
+    <t>won't-have</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -296,6 +358,13 @@
       <color theme="4"/>
       <name val="TH SarabunPSK"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="12">
@@ -393,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -459,6 +528,15 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -469,9 +547,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF011893"/>
       <color rgb="FFFF9300"/>
       <color rgb="FFD5FC79"/>
-      <color rgb="FF011893"/>
       <color rgb="FF00FDFF"/>
       <color rgb="FFFF8AD8"/>
     </mruColors>
@@ -786,11 +864,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5479658-7666-9A41-84D0-B772E0FA4ADC}">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -1037,170 +1115,314 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="O17" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="2" t="s">
+    <row r="18" spans="1:15" ht="21" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="2:15" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="36" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>1</v>
+      </c>
       <c r="B19" s="17" t="s">
         <v>25</v>
       </c>
+      <c r="C19" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="E19" s="2">
         <v>1</v>
       </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="21"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:15" ht="36" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>2</v>
+      </c>
       <c r="B20" s="17" t="s">
         <v>19</v>
       </c>
+      <c r="C20" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="E20" s="2">
         <v>1</v>
       </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="21"/>
-    </row>
-    <row r="21" spans="2:15" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:15" ht="36" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>3</v>
+      </c>
       <c r="B21" s="17" t="s">
         <v>21</v>
       </c>
+      <c r="C21" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="E21" s="2">
         <v>1</v>
       </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-    </row>
-    <row r="22" spans="2:15" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:15" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>4</v>
+      </c>
       <c r="B22" s="17" t="s">
         <v>26</v>
       </c>
+      <c r="C22" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="E22" s="2">
         <v>2</v>
       </c>
-      <c r="I22" s="21"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:15" ht="21" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>5</v>
+      </c>
       <c r="B23" s="18" t="s">
         <v>57</v>
       </c>
+      <c r="C23" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="E23" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="36" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>6</v>
+      </c>
       <c r="B24" s="22" t="s">
         <v>39</v>
       </c>
+      <c r="C24" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>15</v>
+      </c>
       <c r="E24" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" ht="36" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>7</v>
+      </c>
       <c r="B25" s="22" t="s">
         <v>54</v>
       </c>
+      <c r="C25" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>15</v>
+      </c>
       <c r="E25" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" ht="21" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>8</v>
+      </c>
       <c r="B26" s="22" t="s">
         <v>55</v>
       </c>
+      <c r="C26" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>15</v>
+      </c>
       <c r="E26" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" ht="21" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>9</v>
+      </c>
       <c r="B27" s="21" t="s">
         <v>51</v>
       </c>
+      <c r="C27" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>16</v>
+      </c>
       <c r="E27" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="21" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>10</v>
+      </c>
       <c r="B28" s="21" t="s">
         <v>6</v>
       </c>
+      <c r="C28" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>16</v>
+      </c>
       <c r="E28" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="21" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>11</v>
+      </c>
       <c r="B29" s="21" t="s">
         <v>31</v>
       </c>
+      <c r="C29" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>16</v>
+      </c>
       <c r="E29" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="36" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>12</v>
+      </c>
       <c r="B30" s="21" t="s">
         <v>37</v>
       </c>
+      <c r="C30" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>16</v>
+      </c>
       <c r="E30" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>13</v>
+      </c>
       <c r="B31" s="21" t="s">
         <v>45</v>
       </c>
+      <c r="C31" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>16</v>
+      </c>
       <c r="E31" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="B32" s="20" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C32" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F32" s="25"/>
+    </row>
+    <row r="33" spans="2:4" ht="36" x14ac:dyDescent="0.3">
       <c r="B33" s="20" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C33" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="21" x14ac:dyDescent="0.3">
       <c r="B34" s="20" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C34" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="36" x14ac:dyDescent="0.3">
       <c r="B35" s="20" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C35" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="21" x14ac:dyDescent="0.3">
       <c r="B36" s="20" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C36" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="21" x14ac:dyDescent="0.3">
       <c r="B37" s="20" t="s">
         <v>48</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1210,6 +1432,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004B28D7BE1C29F7429846AAD8C05C7751" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ee0f49e040aa2f681c9eaa9679ade3ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e2499db6-b278-4e01-81c4-e1e0435a7cf7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="530f1127f33b82b494738c7b04aed2f7" ns2:_="">
     <xsd:import namespace="e2499db6-b278-4e01-81c4-e1e0435a7cf7"/>
@@ -1341,15 +1572,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1357,6 +1579,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B906005B-E1D5-4ED6-AB93-B62C70186D5E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40419F0C-14B6-4B4A-A522-B325B4022D2B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1374,14 +1604,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B906005B-E1D5-4ED6-AB93-B62C70186D5E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9E51020-2069-45FA-9254-17432B2BB8E8}">
   <ds:schemaRefs>
